--- a/temp_excel_files/Conferences.xlsx
+++ b/temp_excel_files/Conferences.xlsx
@@ -425,13 +425,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="" customWidth="1" min="1" max="1"/>
+    <col width="" customWidth="1" min="2" max="2"/>
+    <col width="" customWidth="1" min="3" max="3"/>
+    <col width="" customWidth="1" min="4" max="4"/>
+    <col width="" customWidth="1" min="5" max="5"/>
+    <col width="" customWidth="1" min="6" max="6"/>
+    <col width="" customWidth="1" min="7" max="7"/>
+    <col width="" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -467,6 +477,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>VideoUrl</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LogoUrl</t>
         </is>
       </c>
     </row>

--- a/temp_excel_files/Conferences.xlsx
+++ b/temp_excel_files/Conferences.xlsx
@@ -432,16 +432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-    <col width="" customWidth="1" min="2" max="2"/>
-    <col width="" customWidth="1" min="3" max="3"/>
-    <col width="" customWidth="1" min="4" max="4"/>
-    <col width="" customWidth="1" min="5" max="5"/>
-    <col width="" customWidth="1" min="6" max="6"/>
-    <col width="" customWidth="1" min="7" max="7"/>
-    <col width="" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
